--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Allied Digital Services Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Allied Digital Services Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
@@ -675,22 +675,22 @@
         <v>0.2</v>
       </c>
       <c r="I2">
-        <v>1.343</v>
+        <v>1.34</v>
       </c>
       <c r="J2">
         <v>6.67</v>
       </c>
       <c r="K2">
-        <v>60.19105263157894</v>
+        <v>60.19</v>
       </c>
       <c r="L2">
-        <v>21.06473684210527</v>
+        <v>21.06</v>
       </c>
       <c r="M2">
         <v>3.96</v>
       </c>
       <c r="N2">
-        <v>10.38684210526316</v>
+        <v>10.39</v>
       </c>
       <c r="O2">
         <v>3.96</v>
@@ -702,10 +702,10 @@
         <v>1.73</v>
       </c>
       <c r="R2">
-        <v>36.68357142857143</v>
+        <v>36.68</v>
       </c>
       <c r="S2">
-        <v>33.943</v>
+        <v>33.94</v>
       </c>
       <c r="T2">
         <v>1.73</v>
@@ -714,7 +714,7 @@
         <v>0.17</v>
       </c>
       <c r="V2">
-        <v>21.97357142857143</v>
+        <v>21.97</v>
       </c>
       <c r="W2">
         <v>1.9</v>
@@ -732,7 +732,7 @@
         <v>1.42</v>
       </c>
       <c r="AB2">
-        <v>40.72071428571429</v>
+        <v>40.72</v>
       </c>
       <c r="AC2">
         <v>14.13</v>
@@ -741,19 +741,19 @@
         <v>16.03</v>
       </c>
       <c r="AE2">
-        <v>38.25315789473684</v>
+        <v>38.25</v>
       </c>
       <c r="AF2">
-        <v>1.698235294117647</v>
+        <v>1.7</v>
       </c>
       <c r="AG2">
         <v>34.36</v>
       </c>
       <c r="AH2">
-        <v>8.108421052631581</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="AI2">
-        <v>123.7327272727273</v>
+        <v>123.73</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -782,7 +782,7 @@
         <v>0.16</v>
       </c>
       <c r="I3">
-        <v>1.343</v>
+        <v>1.34</v>
       </c>
       <c r="J3">
         <v>1.01</v>
@@ -809,10 +809,10 @@
         <v>1.69</v>
       </c>
       <c r="R3">
-        <v>36.68357142857143</v>
+        <v>36.68</v>
       </c>
       <c r="S3">
-        <v>33.943</v>
+        <v>33.94</v>
       </c>
       <c r="T3">
         <v>1.69</v>
@@ -821,7 +821,7 @@
         <v>0.15</v>
       </c>
       <c r="V3">
-        <v>21.97357142857143</v>
+        <v>21.97</v>
       </c>
       <c r="W3">
         <v>2.08</v>
@@ -839,7 +839,7 @@
         <v>10.27</v>
       </c>
       <c r="AB3">
-        <v>40.72071428571429</v>
+        <v>40.72</v>
       </c>
       <c r="AC3">
         <v>43.09</v>
@@ -889,7 +889,7 @@
         <v>0.24</v>
       </c>
       <c r="I4">
-        <v>1.343</v>
+        <v>1.34</v>
       </c>
       <c r="J4">
         <v>1.32</v>
@@ -916,7 +916,7 @@
         <v>6.72</v>
       </c>
       <c r="R4">
-        <v>36.68357142857143</v>
+        <v>36.68</v>
       </c>
       <c r="S4">
         <v>3.66</v>
@@ -928,7 +928,7 @@
         <v>2.89</v>
       </c>
       <c r="V4">
-        <v>21.97357142857143</v>
+        <v>21.97</v>
       </c>
       <c r="W4">
         <v>14.03</v>
@@ -946,7 +946,7 @@
         <v>12.87</v>
       </c>
       <c r="AB4">
-        <v>40.72071428571429</v>
+        <v>40.72</v>
       </c>
       <c r="AC4">
         <v>76.73</v>
@@ -996,7 +996,7 @@
         <v>0.12</v>
       </c>
       <c r="I5">
-        <v>1.343</v>
+        <v>1.34</v>
       </c>
       <c r="J5">
         <v>6.12</v>
@@ -1023,7 +1023,7 @@
         <v>16.23</v>
       </c>
       <c r="R5">
-        <v>36.68357142857143</v>
+        <v>36.68</v>
       </c>
       <c r="S5">
         <v>13.1</v>
@@ -1035,7 +1035,7 @@
         <v>47.46</v>
       </c>
       <c r="V5">
-        <v>21.97357142857143</v>
+        <v>21.97</v>
       </c>
       <c r="W5">
         <v>76.79000000000001</v>
@@ -1053,7 +1053,7 @@
         <v>16.37</v>
       </c>
       <c r="AB5">
-        <v>40.72071428571429</v>
+        <v>40.72</v>
       </c>
       <c r="AC5">
         <v>176.32</v>
@@ -1103,7 +1103,7 @@
         <v>1.48</v>
       </c>
       <c r="I6">
-        <v>1.343</v>
+        <v>1.34</v>
       </c>
       <c r="J6">
         <v>2.02</v>
@@ -1130,7 +1130,7 @@
         <v>35.57</v>
       </c>
       <c r="R6">
-        <v>36.68357142857143</v>
+        <v>36.68</v>
       </c>
       <c r="S6">
         <v>31.19</v>
@@ -1142,7 +1142,7 @@
         <v>73.11</v>
       </c>
       <c r="V6">
-        <v>21.97357142857143</v>
+        <v>21.97</v>
       </c>
       <c r="W6">
         <v>139.87</v>
@@ -1160,7 +1160,7 @@
         <v>46.28</v>
       </c>
       <c r="AB6">
-        <v>40.72071428571429</v>
+        <v>40.72</v>
       </c>
       <c r="AC6">
         <v>257.67</v>
@@ -1204,13 +1204,13 @@
         <v>635.13</v>
       </c>
       <c r="G7">
-        <v>5.436249999999999</v>
+        <v>5.44</v>
       </c>
       <c r="H7">
         <v>10.17</v>
       </c>
       <c r="I7">
-        <v>1.343</v>
+        <v>1.34</v>
       </c>
       <c r="J7">
         <v>10.17</v>
@@ -1237,7 +1237,7 @@
         <v>61.59</v>
       </c>
       <c r="R7">
-        <v>36.68357142857143</v>
+        <v>36.68</v>
       </c>
       <c r="S7">
         <v>48.25</v>
@@ -1249,7 +1249,7 @@
         <v>305.11</v>
       </c>
       <c r="V7">
-        <v>21.97357142857143</v>
+        <v>21.97</v>
       </c>
       <c r="W7">
         <v>422.28</v>
@@ -1267,7 +1267,7 @@
         <v>62.24</v>
       </c>
       <c r="AB7">
-        <v>40.72071428571429</v>
+        <v>40.72</v>
       </c>
       <c r="AC7">
         <v>321.97</v>
@@ -1311,13 +1311,13 @@
         <v>686.0599999999999</v>
       </c>
       <c r="G8">
-        <v>5.436249999999999</v>
+        <v>5.44</v>
       </c>
       <c r="H8">
         <v>7.96</v>
       </c>
       <c r="I8">
-        <v>1.343</v>
+        <v>1.34</v>
       </c>
       <c r="J8">
         <v>8.789999999999999</v>
@@ -1395,7 +1395,7 @@
         <v>8.43</v>
       </c>
       <c r="AI8">
-        <v>123.7327272727273</v>
+        <v>123.73</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1418,7 +1418,7 @@
         <v>687.39</v>
       </c>
       <c r="G9">
-        <v>5.436249999999999</v>
+        <v>5.44</v>
       </c>
       <c r="H9">
         <v>16.81</v>
@@ -1502,7 +1502,7 @@
         <v>8.43</v>
       </c>
       <c r="AI9">
-        <v>123.7327272727273</v>
+        <v>123.73</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1525,7 +1525,7 @@
         <v>677.21</v>
       </c>
       <c r="G10">
-        <v>5.436249999999999</v>
+        <v>5.44</v>
       </c>
       <c r="H10">
         <v>20.22</v>
@@ -1609,7 +1609,7 @@
         <v>8.43</v>
       </c>
       <c r="AI10">
-        <v>123.7327272727273</v>
+        <v>123.73</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -1638,7 +1638,7 @@
         <v>14.8</v>
       </c>
       <c r="I11">
-        <v>1.343</v>
+        <v>1.34</v>
       </c>
       <c r="J11">
         <v>20.71</v>
@@ -1716,7 +1716,7 @@
         <v>8.43</v>
       </c>
       <c r="AI11">
-        <v>123.7327272727273</v>
+        <v>123.73</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -1745,7 +1745,7 @@
         <v>12.2</v>
       </c>
       <c r="I12">
-        <v>1.343</v>
+        <v>1.34</v>
       </c>
       <c r="J12">
         <v>28.59</v>
@@ -1823,7 +1823,7 @@
         <v>8.43</v>
       </c>
       <c r="AI12">
-        <v>123.7327272727273</v>
+        <v>123.73</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -1852,7 +1852,7 @@
         <v>12.78</v>
       </c>
       <c r="I13">
-        <v>1.343</v>
+        <v>1.34</v>
       </c>
       <c r="J13">
         <v>24.77</v>
@@ -1930,7 +1930,7 @@
         <v>8.43</v>
       </c>
       <c r="AI13">
-        <v>123.7327272727273</v>
+        <v>123.73</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -1989,7 +1989,7 @@
         <v>67.59999999999999</v>
       </c>
       <c r="S14">
-        <v>33.943</v>
+        <v>33.94</v>
       </c>
       <c r="T14">
         <v>208.21</v>
@@ -2028,7 +2028,7 @@
         <v>27.29</v>
       </c>
       <c r="AF14">
-        <v>1.698235294117647</v>
+        <v>1.7</v>
       </c>
       <c r="AG14">
         <v>34.36</v>
@@ -2096,7 +2096,7 @@
         <v>58.55</v>
       </c>
       <c r="S15">
-        <v>33.943</v>
+        <v>33.94</v>
       </c>
       <c r="T15">
         <v>192.24</v>
@@ -2135,7 +2135,7 @@
         <v>27.18</v>
       </c>
       <c r="AF15">
-        <v>1.698235294117647</v>
+        <v>1.7</v>
       </c>
       <c r="AG15">
         <v>34.36</v>
@@ -2203,7 +2203,7 @@
         <v>49.54</v>
       </c>
       <c r="S16">
-        <v>33.943</v>
+        <v>33.94</v>
       </c>
       <c r="T16">
         <v>178.44</v>
@@ -2310,7 +2310,7 @@
         <v>40.46</v>
       </c>
       <c r="S17">
-        <v>33.943</v>
+        <v>33.94</v>
       </c>
       <c r="T17">
         <v>168.38</v>
@@ -2417,7 +2417,7 @@
         <v>33.66</v>
       </c>
       <c r="S18">
-        <v>33.943</v>
+        <v>33.94</v>
       </c>
       <c r="T18">
         <v>158.55</v>
@@ -2465,7 +2465,7 @@
         <v>8.68</v>
       </c>
       <c r="AI18">
-        <v>123.7327272727273</v>
+        <v>123.73</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -2524,7 +2524,7 @@
         <v>24.41</v>
       </c>
       <c r="S19">
-        <v>33.943</v>
+        <v>33.94</v>
       </c>
       <c r="T19">
         <v>152.33</v>
@@ -2572,7 +2572,7 @@
         <v>8.68</v>
       </c>
       <c r="AI19">
-        <v>123.7327272727273</v>
+        <v>123.73</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -2631,7 +2631,7 @@
         <v>27.82</v>
       </c>
       <c r="S20">
-        <v>33.943</v>
+        <v>33.94</v>
       </c>
       <c r="T20">
         <v>166.44</v>
@@ -2738,7 +2738,7 @@
         <v>30.5</v>
       </c>
       <c r="S21">
-        <v>33.943</v>
+        <v>33.94</v>
       </c>
       <c r="T21">
         <v>168.09</v>
